--- a/hmi/doc/hmi设计文档.xlsx
+++ b/hmi/doc/hmi设计文档.xlsx
@@ -2,25 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TYW-DaLian\Desktop\设计文档\hmi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3EA635-F5B6-4159-A431-A9ED0BC3A1FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4558BDC1-26D8-45EC-9ED0-5362776218FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="0" windowWidth="28770" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="28770" windowHeight="15600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模块分化" sheetId="1" r:id="rId1"/>
-    <sheet name="Tool" sheetId="2" r:id="rId2"/>
-    <sheet name="Debug" sheetId="4" r:id="rId3"/>
-    <sheet name="Json" sheetId="5" r:id="rId4"/>
-    <sheet name="Dbus" sheetId="6" r:id="rId5"/>
+    <sheet name="Json" sheetId="5" r:id="rId2"/>
+    <sheet name="Base" sheetId="12" r:id="rId3"/>
+    <sheet name="Dbus" sheetId="6" r:id="rId4"/>
+    <sheet name="LOG" sheetId="11" r:id="rId5"/>
     <sheet name="Beat" sheetId="7" r:id="rId6"/>
     <sheet name="Hard" sheetId="8" r:id="rId7"/>
     <sheet name="Ota" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet4" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
   <si>
     <t>模块职责</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,19 +165,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用C的接口封一个C++的Dbus玩玩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>此模块用于与其他程序通信</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.给别的模块提供通信接口
-2.自己有一个线程，用于接收数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重写了构造函数，和一些运算符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,43 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DbusAdapter类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DbusAdapter.cpp\DbusAdapter.h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供dubs链接总线的句柄，和发送
-信号的功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sessionBus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取链接总线句柄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>setDbusWellKnownName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给总线连接的句柄一个名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendASignal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送一个信号出去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DbusReceive类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,38 +193,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提供单例指针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addListenSig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加监听信号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>processTask</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收到消息后分发处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>start</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开启线程监听</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>监控hmi程序运行情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Beat类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,18 +217,6 @@
   </si>
   <si>
     <t>单例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>setRecBeat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置是否收到心跳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收到hmi消息将一个变量置为ture，读取线程循环读值读到ture再给置为false，读到false重启板子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -406,6 +325,124 @@
   </si>
   <si>
     <t>开启线程，上传log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从一个项目上扒下来的log模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.通过头文件设置存放路径，dbug分等级。
+2.自己有一个线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录程序运行时的log，存储在本地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log记录功能使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogStore.cpp\LogStore.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogStore类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始记录log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dbug等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debug.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbug等级和打印及存储配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogRecoder.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储位置及文件名配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用QT封装的bus，真香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.给别的模块提供通信接口
+2.主函数里创建个对象，用于接收数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DbusSend类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DbusSend.cpp\DbusSend.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收发消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service_get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到消息的回调函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendASiganl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DbusReceive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造函数里写监听的信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两秒一次发送心跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活着的证据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心跳模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两秒发一次心跳消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +515,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -532,12 +569,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -562,15 +625,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -599,11 +661,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1854,25 +1934,69 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>113156</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>65756</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D43CC0D1-2009-44B7-8415-E46506D36B31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="4705350"/>
+          <a:ext cx="9152381" cy="7352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2457450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形 1">
+        <xdr:cNvPr id="3" name="对话气泡: 圆角矩形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F2E2A5A-2D0A-49A4-BF00-303DEBD4F27F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D4205C5-EA6E-4B63-BB15-6C652FB0CA04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1880,24 +2004,24 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4438650" y="1571625"/>
-          <a:ext cx="6276975" cy="2771775"/>
+          <a:off x="3581400" y="4238624"/>
+          <a:ext cx="800100" cy="352425"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent5">
+          <a:schemeClr val="accent1">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -1907,14 +2031,81 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="3200"/>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>   示例</a:t>
+          </a:r>
         </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形: 圆角 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F344FFE2-FA0F-455D-AF77-2D7120DD4DE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10267950" y="1352550"/>
+          <a:ext cx="2590800" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="3200"/>
-            <a:t>本模块作用是将一些公用算法函数和公用类的集合，提供给其他模块使用</a:t>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>先写的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>back</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>程序。此模块直接拿来复用</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1928,23 +2119,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形: 圆角 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F4776A-9D79-41F8-9B4C-EE06A92BB92E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F94CFC0D-9810-4A24-92BC-CE9D30ACFCE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1952,8 +2143,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5276850" y="2085975"/>
-          <a:ext cx="3219450" cy="1466850"/>
+          <a:off x="2876550" y="1695450"/>
+          <a:ext cx="3562350" cy="1533525"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1961,15 +2152,15 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
+          <a:schemeClr val="accent6">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent6"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -1980,21 +2171,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
-            <a:t>back</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
-            <a:t>程序很小，所以</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
-            <a:t>log</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
-            <a:t>基本在初期创作的时候进行调试用，不做存储。</a:t>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>工具函数，工具类</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2061,8 +2244,12 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>back</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>移植</a:t>
+            <a:t>程序的</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -2070,7 +2257,15 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>的过程差点没给我累死，网上文档全是坑。搞了两天才搞定</a:t>
+            <a:t>自己封的，现在用人家</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>QT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的几行代码就完成。调接口好快乐</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2130,6 +2325,220 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>332384</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BFCF749-7ADE-4AE5-9442-A4308A986657}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="4876800"/>
+          <a:ext cx="7923809" cy="2971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2057400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="对话气泡: 圆角矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEDE6291-872F-4004-8D61-FD6BBFFCC513}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2400300" y="4114800"/>
+          <a:ext cx="1428750" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发送信号只需一步即可</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1504333</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>104211</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{532CF46A-4295-4937-A611-42DC5C9D58CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="9258300"/>
+          <a:ext cx="4933333" cy="4514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2047875</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="对话气泡: 圆角矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16BBD1FA-F61F-4CB9-A190-7D91A0969C55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="8162925"/>
+          <a:ext cx="1533525" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>找个能让对象一直活的地方创建一个对象，来消息就会调回调函数了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2478,10 +2887,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2494,45 +2904,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25CEDCB-7B8A-4349-8399-24F84D324F23}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261BE5EA-712C-4589-9EA6-B762E04A4759}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E0F3A3-D8B7-4B39-85B4-FBCD01470C98}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2546,35 +2923,35 @@
       <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="18"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="2:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
@@ -2588,7 +2965,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2599,7 +2976,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="15"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2608,7 +2985,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="15"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
@@ -2617,7 +2994,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="15"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
@@ -2626,7 +3003,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
@@ -2635,7 +3012,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="15"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
@@ -2644,7 +3021,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2655,7 +3032,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="15"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
@@ -2664,9 +3041,9 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="15"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>28</v>
@@ -2687,15 +3064,33 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA452071-E9F1-42FC-B71A-573043062AA8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB28B073-098F-442F-AE81-835DC267FAEB}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2709,129 +3104,119 @@
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="16"/>
+      <c r="C2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="16"/>
+      <c r="C3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="16"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="22" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="2:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="14"/>
+      <c r="C9" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="14"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="14"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="2:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="15" t="s">
+      <c r="D12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="15"/>
-      <c r="C9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="15"/>
-      <c r="C10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
-      <c r="C11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="21"/>
-      <c r="C13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>47</v>
+      <c r="B13" s="20"/>
+      <c r="C13" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="21"/>
-      <c r="C14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="21"/>
-      <c r="C15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>51</v>
+      <c r="B15" s="20"/>
+      <c r="C15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="21"/>
-      <c r="C16" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>53</v>
-      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2839,12 +3224,155 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5652FA18-46C1-4C05-981D-4A0F9E1AF7DB}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="B2:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="34.25" customWidth="1"/>
+    <col min="4" max="4" width="30.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="2:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="24"/>
+      <c r="C9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="14"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="27"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="14"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="27"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="14"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="27"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="14"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="27"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="14"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="14"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="D10:D14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5D6CCE-069C-4592-8BFB-4CD301C189B2}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2858,66 +3386,66 @@
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="24"/>
+      <c r="C2" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="16"/>
+      <c r="C3" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="16"/>
+      <c r="C4" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="15" t="s">
-        <v>55</v>
+      <c r="B6" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="15"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="3" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="15"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="14"/>
+      <c r="C9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="15"/>
-      <c r="C9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2935,6 +3463,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F239CEA-EBEC-4F8A-B765-46C605C3EB61}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2949,68 +3478,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="16"/>
+      <c r="C2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="16"/>
+      <c r="C3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="16"/>
+      <c r="C4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="15"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="15" t="s">
-        <v>66</v>
+      <c r="B7" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="15"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="15"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>69</v>
+        <v>36</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="15"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3028,6 +3557,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E70CD7B-1CA5-4868-AA4F-954A0047AFC3}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3042,106 +3572,106 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="16"/>
+      <c r="C2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="2:4" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="16"/>
+      <c r="C3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="2:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="16"/>
+      <c r="C4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="15"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="15" t="s">
-        <v>73</v>
+      <c r="B7" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="15"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="3" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="15"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="15"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="15" t="s">
-        <v>83</v>
+      <c r="B11" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="15"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="15"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3157,4 +3687,17 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBE844E-E9DD-4EAA-95FE-0476C5C1CC6A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>